--- a/BrancheIntermediare/ig/StructureDefinition-fr-patient-history-extension.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-patient-history-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:46:30+00:00</t>
+    <t>2025-12-03T16:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-patient-history-extension.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-patient-history-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:47:23+00:00</t>
+    <t>2025-12-04T14:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-patient-history-extension.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-patient-history-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:08:40+00:00</t>
+    <t>2025-12-05T10:50:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,7 +331,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-observation-pregnancy-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-observation-contra-indications-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-condition-document|Observation|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-device-auteur-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medication-administration-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-document-reference-document)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-observation-pregnancy-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-observation-contra-indications-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-condition-document|Observation|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-device-auteur-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medication-administration-document)
 </t>
   </si>
   <si>
